--- a/la_hacks/Senator Twitter Handles.xlsx
+++ b/la_hacks/Senator Twitter Handles.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="108">
   <si>
     <t>State</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Alabama</t>
   </si>
   <si>
-    <t>Richard Shelby</t>
-  </si>
-  <si>
     <t>Luther Strange</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>@lisamurkowski</t>
   </si>
   <si>
-    <t>Dan Sullivan</t>
-  </si>
-  <si>
     <t>Arizona</t>
   </si>
   <si>
@@ -107,12 +101,6 @@
     <t>@marcorubio</t>
   </si>
   <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>David Perdue</t>
-  </si>
-  <si>
     <t>Idaho</t>
   </si>
   <si>
@@ -185,15 +173,6 @@
     <t>@BillCassidy</t>
   </si>
   <si>
-    <t>John Neely Kennedy</t>
-  </si>
-  <si>
-    <t>Maine</t>
-  </si>
-  <si>
-    <t>Susan Collins</t>
-  </si>
-  <si>
     <t>Mississippi</t>
   </si>
   <si>
@@ -236,9 +215,6 @@
     <t>@SenatorFischer</t>
   </si>
   <si>
-    <t>Ben Sasse</t>
-  </si>
-  <si>
     <t>Nevada</t>
   </si>
   <si>
@@ -284,9 +260,6 @@
     <t>Oklahoma</t>
   </si>
   <si>
-    <t>Jim Inhofe</t>
-  </si>
-  <si>
     <t>James Lankford</t>
   </si>
   <si>
@@ -320,30 +293,15 @@
     <t>South Dakota</t>
   </si>
   <si>
-    <t>Mike Rounds</t>
-  </si>
-  <si>
     <t>John Thune</t>
   </si>
   <si>
     <t>@SenJohnThune</t>
   </si>
   <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Lamar Alexander</t>
-  </si>
-  <si>
-    <t>Bob Corker</t>
-  </si>
-  <si>
     <t>Texas</t>
   </si>
   <si>
-    <t>John Cornyn</t>
-  </si>
-  <si>
     <t>Ted Cruz</t>
   </si>
   <si>
@@ -351,9 +309,6 @@
   </si>
   <si>
     <t>Utah</t>
-  </si>
-  <si>
-    <t>Orrin Hatch</t>
   </si>
   <si>
     <t>Mike Lee</t>
@@ -792,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.59765625" defaultRowHeight="15.75"/>
@@ -817,7 +772,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="30">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -838,34 +793,36 @@
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" s="6" customFormat="1">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -873,39 +830,41 @@
     </row>
     <row r="6" spans="1:6" s="6" customFormat="1">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" s="6" customFormat="1">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" s="6" customFormat="1">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
@@ -913,13 +872,13 @@
     </row>
     <row r="9" spans="1:6" s="6" customFormat="1">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
@@ -927,27 +886,27 @@
     </row>
     <row r="10" spans="1:6" s="6" customFormat="1">
       <c r="A10" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" s="6" customFormat="1">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -955,203 +914,209 @@
     </row>
     <row r="12" spans="1:6" s="6" customFormat="1">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" s="6" customFormat="1">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" s="6" customFormat="1">
       <c r="A14" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" s="6" customFormat="1">
       <c r="A15" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" s="6" customFormat="1">
       <c r="A16" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" s="6" customFormat="1">
       <c r="A17" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="D17" s="4"/>
       <c r="E17" s="5"/>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" s="6" customFormat="1">
       <c r="A18" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" s="6" customFormat="1">
       <c r="A19" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" s="6" customFormat="1">
       <c r="A20" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" s="6" customFormat="1">
       <c r="A21" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="D21" s="4"/>
       <c r="E21" s="5"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" s="6" customFormat="1">
       <c r="A22" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" s="6" customFormat="1">
       <c r="A23" s="4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" s="6" customFormat="1">
       <c r="A24" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" s="6" customFormat="1">
       <c r="A25" s="4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" s="6" customFormat="1">
       <c r="A26" s="4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -1159,27 +1124,27 @@
     </row>
     <row r="27" spans="1:6" s="6" customFormat="1">
       <c r="A27" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" s="6" customFormat="1">
       <c r="A28" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -1187,39 +1152,41 @@
     </row>
     <row r="29" spans="1:6" s="6" customFormat="1">
       <c r="A29" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" s="6" customFormat="1">
       <c r="A30" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" s="6" customFormat="1">
       <c r="A31" s="4" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -1227,13 +1194,13 @@
     </row>
     <row r="32" spans="1:6" s="6" customFormat="1">
       <c r="A32" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -1241,27 +1208,27 @@
     </row>
     <row r="33" spans="1:6" s="6" customFormat="1">
       <c r="A33" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="E33" s="5"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" s="6" customFormat="1">
       <c r="A34" s="4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -1269,39 +1236,41 @@
     </row>
     <row r="35" spans="1:6" s="6" customFormat="1">
       <c r="A35" s="4" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="D35" s="4"/>
       <c r="E35" s="5"/>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" s="6" customFormat="1">
       <c r="A36" s="4" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="4"/>
       <c r="E36" s="5"/>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" s="6" customFormat="1">
       <c r="A37" s="4" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -1309,13 +1278,13 @@
     </row>
     <row r="38" spans="1:6" s="6" customFormat="1">
       <c r="A38" s="4" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -1323,13 +1292,13 @@
     </row>
     <row r="39" spans="1:6" s="6" customFormat="1">
       <c r="A39" s="4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -1337,210 +1306,52 @@
     </row>
     <row r="40" spans="1:6" s="6" customFormat="1">
       <c r="A40" s="4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:6" s="6" customFormat="1">
-      <c r="A41" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:6" s="6" customFormat="1">
-      <c r="A42" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:6" s="6" customFormat="1">
-      <c r="A43" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:6" s="6" customFormat="1">
-      <c r="A44" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:6" s="6" customFormat="1">
-      <c r="A45" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:6" s="6" customFormat="1">
-      <c r="A46" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:6" s="6" customFormat="1">
-      <c r="A47" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:6" s="6" customFormat="1">
-      <c r="A48" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="1:6" s="6" customFormat="1">
-      <c r="A49" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="1:6" s="6" customFormat="1">
-      <c r="A50" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="1:6" s="6" customFormat="1">
-      <c r="A51" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="1:6" s="6" customFormat="1">
-      <c r="A52" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" display="https://twitter.com/lutherstrange"/>
-    <hyperlink ref="C5" r:id="rId2" display="https://twitter.com/lisamurkowski"/>
-    <hyperlink ref="C7" r:id="rId3" display="https://twitter.com/SenJohnMcCain"/>
-    <hyperlink ref="C8" r:id="rId4" display="https://twitter.com/JeffFlake"/>
-    <hyperlink ref="C9" r:id="rId5" display="https://twitter.com/SenTomCotton"/>
-    <hyperlink ref="C10" r:id="rId6" display="https://twitter.com/JohnBoozman"/>
-    <hyperlink ref="C12" r:id="rId7" display="https://twitter.com/marcorubio"/>
-    <hyperlink ref="C14" r:id="rId8" display="https://twitter.com/MikeCrapo"/>
-    <hyperlink ref="C18" r:id="rId9" display="https://twitter.com/joniernst"/>
-    <hyperlink ref="C19" r:id="rId10" display="https://twitter.com/SenPatRoberts"/>
-    <hyperlink ref="C20" r:id="rId11" display="https://twitter.com/JerryMoran"/>
-    <hyperlink ref="C21" r:id="rId12" display="https://twitter.com/SenateMajLdr"/>
-    <hyperlink ref="C25" r:id="rId13" display="https://twitter.com/SenThadCochran"/>
-    <hyperlink ref="C26" r:id="rId14" display="https://twitter.com/SenatorWicker"/>
-    <hyperlink ref="C27" r:id="rId15" display="https://twitter.com/RoyBlunt"/>
-    <hyperlink ref="C28" r:id="rId16" display="https://twitter.com/SteveDaines"/>
-    <hyperlink ref="C29" r:id="rId17" display="https://twitter.com/SenatorFischer"/>
-    <hyperlink ref="C31" r:id="rId18" display="https://twitter.com/SenDeanHeller"/>
-    <hyperlink ref="C32" r:id="rId19" display="https://twitter.com/SenatorBurr"/>
-    <hyperlink ref="C33" r:id="rId20" display="https://twitter.com/ThomTillis"/>
-    <hyperlink ref="C34" r:id="rId21" display="https://twitter.com/SenJohnHoeven"/>
-    <hyperlink ref="C35" r:id="rId22" display="https://twitter.com/robportman"/>
-    <hyperlink ref="C37" r:id="rId23" display="https://twitter.com/SenatorLankford"/>
-    <hyperlink ref="C38" r:id="rId24" display="https://twitter.com/SenToomey"/>
-    <hyperlink ref="C39" r:id="rId25" display="https://twitter.com/GrahamBlog"/>
-    <hyperlink ref="C40" r:id="rId26" display="https://twitter.com/SenatorTimScott"/>
-    <hyperlink ref="C42" r:id="rId27" display="https://twitter.com/SenJohnThune"/>
-    <hyperlink ref="C46" r:id="rId28" display="https://twitter.com/SenTedCruz"/>
-    <hyperlink ref="C48" r:id="rId29" display="https://twitter.com/SenMikeLee"/>
-    <hyperlink ref="C49" r:id="rId30" display="https://twitter.com/SenCapito"/>
-    <hyperlink ref="C50" r:id="rId31" display="https://twitter.com/SenRonJohnson"/>
-    <hyperlink ref="C51" r:id="rId32" display="https://twitter.com/SenatorEnzi"/>
-    <hyperlink ref="C52" r:id="rId33" display="https://twitter.com/SenJohnBarrasso"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://twitter.com/lutherstrange"/>
+    <hyperlink ref="C4" r:id="rId2" display="https://twitter.com/lisamurkowski"/>
+    <hyperlink ref="C5" r:id="rId3" display="https://twitter.com/SenJohnMcCain"/>
+    <hyperlink ref="C6" r:id="rId4" display="https://twitter.com/JeffFlake"/>
+    <hyperlink ref="C7" r:id="rId5" display="https://twitter.com/SenTomCotton"/>
+    <hyperlink ref="C8" r:id="rId6" display="https://twitter.com/JohnBoozman"/>
+    <hyperlink ref="C10" r:id="rId7" display="https://twitter.com/marcorubio"/>
+    <hyperlink ref="C11" r:id="rId8" display="https://twitter.com/MikeCrapo"/>
+    <hyperlink ref="C15" r:id="rId9" display="https://twitter.com/joniernst"/>
+    <hyperlink ref="C16" r:id="rId10" display="https://twitter.com/SenPatRoberts"/>
+    <hyperlink ref="C17" r:id="rId11" display="https://twitter.com/JerryMoran"/>
+    <hyperlink ref="C18" r:id="rId12" display="https://twitter.com/SenateMajLdr"/>
+    <hyperlink ref="C20" r:id="rId13" display="https://twitter.com/SenThadCochran"/>
+    <hyperlink ref="C21" r:id="rId14" display="https://twitter.com/SenatorWicker"/>
+    <hyperlink ref="C22" r:id="rId15" display="https://twitter.com/RoyBlunt"/>
+    <hyperlink ref="C23" r:id="rId16" display="https://twitter.com/SteveDaines"/>
+    <hyperlink ref="C24" r:id="rId17" display="https://twitter.com/SenatorFischer"/>
+    <hyperlink ref="C25" r:id="rId18" display="https://twitter.com/SenDeanHeller"/>
+    <hyperlink ref="C26" r:id="rId19" display="https://twitter.com/SenatorBurr"/>
+    <hyperlink ref="C27" r:id="rId20" display="https://twitter.com/ThomTillis"/>
+    <hyperlink ref="C28" r:id="rId21" display="https://twitter.com/SenJohnHoeven"/>
+    <hyperlink ref="C29" r:id="rId22" display="https://twitter.com/robportman"/>
+    <hyperlink ref="C30" r:id="rId23" display="https://twitter.com/SenatorLankford"/>
+    <hyperlink ref="C31" r:id="rId24" display="https://twitter.com/SenToomey"/>
+    <hyperlink ref="C32" r:id="rId25" display="https://twitter.com/GrahamBlog"/>
+    <hyperlink ref="C33" r:id="rId26" display="https://twitter.com/SenatorTimScott"/>
+    <hyperlink ref="C34" r:id="rId27" display="https://twitter.com/SenJohnThune"/>
+    <hyperlink ref="C35" r:id="rId28" display="https://twitter.com/SenTedCruz"/>
+    <hyperlink ref="C36" r:id="rId29" display="https://twitter.com/SenMikeLee"/>
+    <hyperlink ref="C37" r:id="rId30" display="https://twitter.com/SenCapito"/>
+    <hyperlink ref="C38" r:id="rId31" display="https://twitter.com/SenRonJohnson"/>
+    <hyperlink ref="C39" r:id="rId32" display="https://twitter.com/SenatorEnzi"/>
+    <hyperlink ref="C40" r:id="rId33" display="https://twitter.com/SenJohnBarrasso"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId34"/>

--- a/la_hacks/Senator Twitter Handles.xlsx
+++ b/la_hacks/Senator Twitter Handles.xlsx
@@ -354,7 +354,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,6 +390,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -418,7 +424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -432,6 +438,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -750,7 +766,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.59765625" defaultRowHeight="15.75"/>
@@ -773,13 +789,13 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3"/>
@@ -787,13 +803,13 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="4"/>
@@ -801,13 +817,13 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" s="6" customFormat="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="4"/>
@@ -815,13 +831,13 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="4"/>
@@ -829,13 +845,13 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" s="6" customFormat="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="4"/>
@@ -843,13 +859,13 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" s="6" customFormat="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="4"/>
@@ -857,13 +873,13 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" s="6" customFormat="1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="4"/>
@@ -871,13 +887,13 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" s="6" customFormat="1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="4"/>
@@ -885,13 +901,13 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" s="6" customFormat="1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="5"/>
@@ -899,13 +915,13 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" s="6" customFormat="1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="4"/>
@@ -913,13 +929,13 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" s="6" customFormat="1">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="4"/>
@@ -927,13 +943,13 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" s="6" customFormat="1">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="4"/>
@@ -941,13 +957,13 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" s="6" customFormat="1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="5"/>
@@ -955,13 +971,13 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" s="6" customFormat="1">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="4"/>
@@ -969,13 +985,13 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" s="6" customFormat="1">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="4"/>
@@ -983,13 +999,13 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" s="6" customFormat="1">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="4"/>
@@ -997,13 +1013,13 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" s="6" customFormat="1">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="9" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="5"/>
@@ -1011,13 +1027,13 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" s="6" customFormat="1">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="4"/>
@@ -1025,13 +1041,13 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" s="6" customFormat="1">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D20" s="4"/>
@@ -1039,13 +1055,13 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" s="6" customFormat="1">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="4"/>
@@ -1053,13 +1069,13 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" s="6" customFormat="1">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="9" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="5"/>
@@ -1067,13 +1083,13 @@
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" s="6" customFormat="1">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="9" t="s">
         <v>59</v>
       </c>
       <c r="D23" s="4"/>
@@ -1081,13 +1097,13 @@
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" s="6" customFormat="1">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="9" t="s">
         <v>62</v>
       </c>
       <c r="D24" s="4"/>
@@ -1095,13 +1111,13 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" s="6" customFormat="1">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="9" t="s">
         <v>65</v>
       </c>
       <c r="D25" s="4"/>
@@ -1109,13 +1125,13 @@
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" s="6" customFormat="1">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="9" t="s">
         <v>68</v>
       </c>
       <c r="D26" s="4"/>
@@ -1123,13 +1139,13 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" s="6" customFormat="1">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D27" s="4"/>
@@ -1137,13 +1153,13 @@
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" s="6" customFormat="1">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D28" s="4"/>
@@ -1151,13 +1167,13 @@
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" s="6" customFormat="1">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D29" s="5"/>
@@ -1165,13 +1181,13 @@
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" s="6" customFormat="1">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="9" t="s">
         <v>79</v>
       </c>
       <c r="D30" s="4"/>
@@ -1179,13 +1195,13 @@
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" s="6" customFormat="1">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="9" t="s">
         <v>82</v>
       </c>
       <c r="D31" s="4"/>
@@ -1193,13 +1209,13 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" s="6" customFormat="1">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="4"/>
@@ -1207,13 +1223,13 @@
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" s="6" customFormat="1">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D33" s="4"/>
@@ -1221,13 +1237,13 @@
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" s="6" customFormat="1">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="9" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="4"/>
@@ -1235,13 +1251,13 @@
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" s="6" customFormat="1">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D35" s="4"/>
@@ -1249,13 +1265,13 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" s="6" customFormat="1">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="9" t="s">
         <v>96</v>
       </c>
       <c r="D36" s="4"/>
@@ -1263,13 +1279,13 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" s="6" customFormat="1">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="9" t="s">
         <v>99</v>
       </c>
       <c r="D37" s="4"/>
@@ -1277,13 +1293,13 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" s="6" customFormat="1">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="9" t="s">
         <v>102</v>
       </c>
       <c r="D38" s="4"/>
@@ -1291,13 +1307,13 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" s="6" customFormat="1">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="9" t="s">
         <v>105</v>
       </c>
       <c r="D39" s="4"/>
@@ -1305,55 +1321,20 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" s="6" customFormat="1">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="9" t="s">
         <v>107</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://twitter.com/lutherstrange"/>
-    <hyperlink ref="C4" r:id="rId2" display="https://twitter.com/lisamurkowski"/>
-    <hyperlink ref="C5" r:id="rId3" display="https://twitter.com/SenJohnMcCain"/>
-    <hyperlink ref="C6" r:id="rId4" display="https://twitter.com/JeffFlake"/>
-    <hyperlink ref="C7" r:id="rId5" display="https://twitter.com/SenTomCotton"/>
-    <hyperlink ref="C8" r:id="rId6" display="https://twitter.com/JohnBoozman"/>
-    <hyperlink ref="C10" r:id="rId7" display="https://twitter.com/marcorubio"/>
-    <hyperlink ref="C11" r:id="rId8" display="https://twitter.com/MikeCrapo"/>
-    <hyperlink ref="C15" r:id="rId9" display="https://twitter.com/joniernst"/>
-    <hyperlink ref="C16" r:id="rId10" display="https://twitter.com/SenPatRoberts"/>
-    <hyperlink ref="C17" r:id="rId11" display="https://twitter.com/JerryMoran"/>
-    <hyperlink ref="C18" r:id="rId12" display="https://twitter.com/SenateMajLdr"/>
-    <hyperlink ref="C20" r:id="rId13" display="https://twitter.com/SenThadCochran"/>
-    <hyperlink ref="C21" r:id="rId14" display="https://twitter.com/SenatorWicker"/>
-    <hyperlink ref="C22" r:id="rId15" display="https://twitter.com/RoyBlunt"/>
-    <hyperlink ref="C23" r:id="rId16" display="https://twitter.com/SteveDaines"/>
-    <hyperlink ref="C24" r:id="rId17" display="https://twitter.com/SenatorFischer"/>
-    <hyperlink ref="C25" r:id="rId18" display="https://twitter.com/SenDeanHeller"/>
-    <hyperlink ref="C26" r:id="rId19" display="https://twitter.com/SenatorBurr"/>
-    <hyperlink ref="C27" r:id="rId20" display="https://twitter.com/ThomTillis"/>
-    <hyperlink ref="C28" r:id="rId21" display="https://twitter.com/SenJohnHoeven"/>
-    <hyperlink ref="C29" r:id="rId22" display="https://twitter.com/robportman"/>
-    <hyperlink ref="C30" r:id="rId23" display="https://twitter.com/SenatorLankford"/>
-    <hyperlink ref="C31" r:id="rId24" display="https://twitter.com/SenToomey"/>
-    <hyperlink ref="C32" r:id="rId25" display="https://twitter.com/GrahamBlog"/>
-    <hyperlink ref="C33" r:id="rId26" display="https://twitter.com/SenatorTimScott"/>
-    <hyperlink ref="C34" r:id="rId27" display="https://twitter.com/SenJohnThune"/>
-    <hyperlink ref="C35" r:id="rId28" display="https://twitter.com/SenTedCruz"/>
-    <hyperlink ref="C36" r:id="rId29" display="https://twitter.com/SenMikeLee"/>
-    <hyperlink ref="C37" r:id="rId30" display="https://twitter.com/SenCapito"/>
-    <hyperlink ref="C38" r:id="rId31" display="https://twitter.com/SenRonJohnson"/>
-    <hyperlink ref="C39" r:id="rId32" display="https://twitter.com/SenatorEnzi"/>
-    <hyperlink ref="C40" r:id="rId33" display="https://twitter.com/SenJohnBarrasso"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId34"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/la_hacks/Senator Twitter Handles.xlsx
+++ b/la_hacks/Senator Twitter Handles.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\LA_Hacks2017\la_hacks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11988"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,319 +41,319 @@
     <t>Luther Strange</t>
   </si>
   <si>
-    <t>@lutherstrange</t>
-  </si>
-  <si>
     <t>Alaska</t>
   </si>
   <si>
     <t>Lisa Murkowski</t>
   </si>
   <si>
-    <t>@lisamurkowski</t>
-  </si>
-  <si>
     <t>Arizona</t>
   </si>
   <si>
     <t>John McCain</t>
   </si>
   <si>
-    <t>@SenJohnMcCain</t>
-  </si>
-  <si>
     <t>Jeff Flake</t>
   </si>
   <si>
-    <t>@JeffFlake</t>
-  </si>
-  <si>
     <t>Arkansas</t>
   </si>
   <si>
     <t>Tom Cotton</t>
   </si>
   <si>
-    <t>@SenTomCotton</t>
-  </si>
-  <si>
     <t>John Boozman</t>
   </si>
   <si>
-    <t>@JohnBoozman</t>
-  </si>
-  <si>
     <t>Colorado</t>
   </si>
   <si>
     <t>Cory Gardner</t>
   </si>
   <si>
-    <t>@SenCoryGardner</t>
-  </si>
-  <si>
     <t>Florida</t>
   </si>
   <si>
     <t>Marco Rubio</t>
   </si>
   <si>
-    <t>@marcorubio</t>
-  </si>
-  <si>
     <t>Idaho</t>
   </si>
   <si>
     <t>Mike Crapo</t>
   </si>
   <si>
-    <t>@MikeCrapo</t>
-  </si>
-  <si>
     <t>Jim Risch</t>
   </si>
   <si>
-    <t>@SenatorRisch</t>
-  </si>
-  <si>
     <t>Indiana</t>
   </si>
   <si>
     <t>Todd Young</t>
   </si>
   <si>
-    <t>@SenToddYoung</t>
-  </si>
-  <si>
     <t>Iowa</t>
   </si>
   <si>
     <t>Chuck Grassley</t>
   </si>
   <si>
-    <t>@ChuckGrassley</t>
-  </si>
-  <si>
     <t>Joni Ernst</t>
   </si>
   <si>
-    <t>@joniernst</t>
-  </si>
-  <si>
     <t>Kansas</t>
   </si>
   <si>
     <t>Pat Roberts</t>
   </si>
   <si>
-    <t>@SenPatRoberts</t>
-  </si>
-  <si>
     <t>Jerry Moran</t>
   </si>
   <si>
-    <t>@JerryMoran</t>
-  </si>
-  <si>
     <t>Kentucky</t>
   </si>
   <si>
     <t>Mitch McConnell</t>
   </si>
   <si>
-    <t> @SenateMajLdr</t>
-  </si>
-  <si>
     <t>Louisiana</t>
   </si>
   <si>
     <t>Bill Cassidy</t>
   </si>
   <si>
-    <t>@BillCassidy</t>
-  </si>
-  <si>
     <t>Mississippi</t>
   </si>
   <si>
     <t>Thad Cochran</t>
   </si>
   <si>
-    <t>@SenThadCochran</t>
-  </si>
-  <si>
     <t>Roger Wicker</t>
   </si>
   <si>
-    <t>@SenatorWicker</t>
-  </si>
-  <si>
     <t>Missouri</t>
   </si>
   <si>
     <t>Roy Blunt</t>
   </si>
   <si>
-    <t>@RoyBlunt</t>
-  </si>
-  <si>
     <t>Montana</t>
   </si>
   <si>
     <t>Steve Daines</t>
   </si>
   <si>
-    <t> @SteveDaines</t>
-  </si>
-  <si>
     <t>Nebraska</t>
   </si>
   <si>
     <t>Deb Fischer</t>
   </si>
   <si>
-    <t>@SenatorFischer</t>
-  </si>
-  <si>
     <t>Nevada</t>
   </si>
   <si>
     <t>Dean Heller</t>
   </si>
   <si>
-    <t>@SenDeanHeller</t>
-  </si>
-  <si>
     <t>North Carolina</t>
   </si>
   <si>
     <t>Richard Burr</t>
   </si>
   <si>
-    <t>@SenatorBurr</t>
-  </si>
-  <si>
     <t>Thom Tillis</t>
   </si>
   <si>
-    <t>@ThomTillis</t>
-  </si>
-  <si>
     <t>North Dakota</t>
   </si>
   <si>
     <t>John Hoeven</t>
   </si>
   <si>
-    <t>@SenJohnHoeven</t>
-  </si>
-  <si>
     <t>Ohio</t>
   </si>
   <si>
     <t>Rob Portman</t>
   </si>
   <si>
-    <t>@robportman</t>
-  </si>
-  <si>
     <t>Oklahoma</t>
   </si>
   <si>
     <t>James Lankford</t>
   </si>
   <si>
-    <t>@SenatorLankford</t>
-  </si>
-  <si>
     <t>Pennsylvania</t>
   </si>
   <si>
     <t>Pat Toomey</t>
   </si>
   <si>
-    <t>@SenToomey</t>
-  </si>
-  <si>
     <t>South Carolina</t>
   </si>
   <si>
     <t>Lindsey Graham</t>
   </si>
   <si>
-    <t>@GrahamBlog</t>
-  </si>
-  <si>
     <t>Tim Scott</t>
   </si>
   <si>
-    <t>@SenatorTimScott</t>
-  </si>
-  <si>
     <t>South Dakota</t>
   </si>
   <si>
     <t>John Thune</t>
   </si>
   <si>
-    <t>@SenJohnThune</t>
-  </si>
-  <si>
     <t>Texas</t>
   </si>
   <si>
     <t>Ted Cruz</t>
   </si>
   <si>
-    <t>@SenTedCruz</t>
-  </si>
-  <si>
     <t>Utah</t>
   </si>
   <si>
     <t>Mike Lee</t>
   </si>
   <si>
-    <t>@SenMikeLee</t>
-  </si>
-  <si>
     <t>West Virginia</t>
   </si>
   <si>
     <t>Shelley Moore Capito</t>
   </si>
   <si>
-    <t>@SenCapito</t>
-  </si>
-  <si>
     <t>Wisconsin</t>
   </si>
   <si>
     <t>Ron Johnson</t>
   </si>
   <si>
-    <t>@SenRonJohnson</t>
-  </si>
-  <si>
     <t>Wyoming</t>
   </si>
   <si>
     <t>Mike Enzi</t>
   </si>
   <si>
-    <t>@SenatorEnzi</t>
-  </si>
-  <si>
     <t>John Barrasso</t>
   </si>
   <si>
-    <t>@SenJohnBarrasso</t>
+    <t>"@lutherstrange</t>
+  </si>
+  <si>
+    <t>"@lisamurkowski</t>
+  </si>
+  <si>
+    <t>"@SenJohnMcCain</t>
+  </si>
+  <si>
+    <t>"@JeffFlake</t>
+  </si>
+  <si>
+    <t>"@SenTomCotton</t>
+  </si>
+  <si>
+    <t>"@JohnBoozman</t>
+  </si>
+  <si>
+    <t>"@SenCoryGardner</t>
+  </si>
+  <si>
+    <t>"@marcorubio</t>
+  </si>
+  <si>
+    <t>"@MikeCrapo</t>
+  </si>
+  <si>
+    <t>"@SenatorRisch</t>
+  </si>
+  <si>
+    <t>"@SenToddYoung</t>
+  </si>
+  <si>
+    <t>"@ChuckGrassley</t>
+  </si>
+  <si>
+    <t>"@joniernst</t>
+  </si>
+  <si>
+    <t>"@SenPatRoberts</t>
+  </si>
+  <si>
+    <t>"@JerryMoran</t>
+  </si>
+  <si>
+    <t> "@SenateMajLdr</t>
+  </si>
+  <si>
+    <t>"@BillCassidy</t>
+  </si>
+  <si>
+    <t>"@SenThadCochran</t>
+  </si>
+  <si>
+    <t>"@SenatorWicker</t>
+  </si>
+  <si>
+    <t>"@RoyBlunt</t>
+  </si>
+  <si>
+    <t> "@SteveDaines</t>
+  </si>
+  <si>
+    <t>"@SenatorFischer</t>
+  </si>
+  <si>
+    <t>"@SenDeanHeller</t>
+  </si>
+  <si>
+    <t>"@SenatorBurr</t>
+  </si>
+  <si>
+    <t>"@ThomTillis</t>
+  </si>
+  <si>
+    <t>"@SenJohnHoeven</t>
+  </si>
+  <si>
+    <t>"@robportman</t>
+  </si>
+  <si>
+    <t>"@SenatorLankford</t>
+  </si>
+  <si>
+    <t>"@SenToomey</t>
+  </si>
+  <si>
+    <t>"@GrahamBlog</t>
+  </si>
+  <si>
+    <t>"@SenatorTimScott</t>
+  </si>
+  <si>
+    <t>"@SenJohnThune</t>
+  </si>
+  <si>
+    <t>"@SenTedCruz</t>
+  </si>
+  <si>
+    <t>"@SenMikeLee</t>
+  </si>
+  <si>
+    <t>"@SenCapito</t>
+  </si>
+  <si>
+    <t>"@SenRonJohnson</t>
+  </si>
+  <si>
+    <t>"@SenatorEnzi</t>
+  </si>
+  <si>
+    <t>"@SenJohnBarrasso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -453,8 +453,36 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -765,19 +793,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.59765625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="16.5546875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="15.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.06640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.59765625" style="2"/>
-    <col min="5" max="5" width="18.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="16.59765625" style="2"/>
+    <col min="1" max="1" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="16.5546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -810,531 +838,650 @@
         <v>4</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f>CONCATENATE(C3, """,")</f>
+        <v>"@lutherstrange",</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" s="6" customFormat="1">
+    <row r="4" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="C4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <f t="shared" ref="D4:D40" si="0">CONCATENATE(C4, """,")</f>
+        <v>"@lisamurkowski",</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1">
+    <row r="5" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A5" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@SenJohnMcCain",</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" s="6" customFormat="1">
+    <row r="6" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="C6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@JeffFlake",</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" s="6" customFormat="1">
+    <row r="7" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A7" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@SenTomCotton",</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" s="6" customFormat="1">
+    <row r="8" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A8" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@JohnBoozman",</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" s="6" customFormat="1">
+    <row r="9" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A9" s="8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@SenCoryGardner",</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" s="6" customFormat="1">
+    <row r="10" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A10" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@marcorubio",</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" s="6" customFormat="1">
+    <row r="11" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A11" s="8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@MikeCrapo",</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" s="6" customFormat="1">
+    <row r="12" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A12" s="8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@SenatorRisch",</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" s="6" customFormat="1">
+    <row r="13" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A13" s="8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@SenToddYoung",</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" s="6" customFormat="1">
+    <row r="14" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A14" s="8" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@ChuckGrassley",</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" s="6" customFormat="1">
+    <row r="15" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A15" s="8" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@joniernst",</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" s="6" customFormat="1">
+    <row r="16" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A16" s="8" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="D16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@SenPatRoberts",</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" s="6" customFormat="1">
+    <row r="17" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A17" s="8" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="D17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@JerryMoran",</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" s="6" customFormat="1">
+    <row r="18" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A18" s="8" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="D18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v> "@SenateMajLdr",</v>
+      </c>
       <c r="E18" s="5"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" s="6" customFormat="1">
+    <row r="19" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A19" s="8" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@BillCassidy",</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" s="6" customFormat="1">
+    <row r="20" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A20" s="8" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="D20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@SenThadCochran",</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" s="6" customFormat="1">
+    <row r="21" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A21" s="8" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="D21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@SenatorWicker",</v>
+      </c>
       <c r="E21" s="5"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" s="6" customFormat="1">
+    <row r="22" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A22" s="8" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@RoyBlunt",</v>
+      </c>
       <c r="E22" s="5"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" s="6" customFormat="1">
+    <row r="23" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A23" s="8" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="D23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v> "@SteveDaines",</v>
+      </c>
       <c r="E23" s="5"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" s="6" customFormat="1">
+    <row r="24" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A24" s="8" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="D24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@SenatorFischer",</v>
+      </c>
       <c r="E24" s="5"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" s="6" customFormat="1">
+    <row r="25" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A25" s="8" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="D25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@SenDeanHeller",</v>
+      </c>
       <c r="E25" s="5"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" s="6" customFormat="1">
+    <row r="26" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A26" s="8" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="D26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@SenatorBurr",</v>
+      </c>
       <c r="E26" s="5"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" s="6" customFormat="1">
+    <row r="27" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A27" s="8" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="D27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@ThomTillis",</v>
+      </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" s="6" customFormat="1">
+    <row r="28" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A28" s="8" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="D28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@SenJohnHoeven",</v>
+      </c>
       <c r="E28" s="5"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" s="6" customFormat="1">
+    <row r="29" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A29" s="8" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="D29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@robportman",</v>
+      </c>
       <c r="E29" s="5"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" s="6" customFormat="1">
+    <row r="30" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A30" s="8" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="D30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@SenatorLankford",</v>
+      </c>
       <c r="E30" s="5"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" s="6" customFormat="1">
+    <row r="31" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A31" s="8" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="D31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@SenToomey",</v>
+      </c>
       <c r="E31" s="5"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" s="6" customFormat="1">
+    <row r="32" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A32" s="8" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="D32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@GrahamBlog",</v>
+      </c>
       <c r="E32" s="5"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" s="6" customFormat="1">
+    <row r="33" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A33" s="8" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="D33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@SenatorTimScott",</v>
+      </c>
       <c r="E33" s="5"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" s="6" customFormat="1">
+    <row r="34" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A34" s="8" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="D34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@SenJohnThune",</v>
+      </c>
       <c r="E34" s="5"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" s="6" customFormat="1">
+    <row r="35" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A35" s="8" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="D35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@SenTedCruz",</v>
+      </c>
       <c r="E35" s="5"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" s="6" customFormat="1">
+    <row r="36" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A36" s="8" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="4"/>
+        <v>103</v>
+      </c>
+      <c r="D36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@SenMikeLee",</v>
+      </c>
       <c r="E36" s="5"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" s="6" customFormat="1">
+    <row r="37" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A37" s="8" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="D37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@SenCapito",</v>
+      </c>
       <c r="E37" s="5"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" s="6" customFormat="1">
+    <row r="38" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A38" s="8" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" s="4"/>
+        <v>105</v>
+      </c>
+      <c r="D38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@SenRonJohnson",</v>
+      </c>
       <c r="E38" s="5"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" s="6" customFormat="1">
+    <row r="39" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A39" s="8" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="D39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@SenatorEnzi",</v>
+      </c>
       <c r="E39" s="5"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" s="6" customFormat="1">
+    <row r="40" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="A40" s="8" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D40" s="4"/>
+      <c r="D40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"@SenJohnBarrasso",</v>
+      </c>
       <c r="E40" s="5"/>
     </row>
   </sheetData>
+  <dataConsolidate>
+    <dataRefs count="1">
+      <dataRef ref="D3" sheet="Sheet1"/>
+    </dataRefs>
+  </dataConsolidate>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>